--- a/data/trans_orig/P13A_1_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P13A_1_2023-Dificultad-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>46876</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41423</v>
+        <v>41814</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49250</v>
+        <v>49268</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9420005597837536</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8324313924492212</v>
+        <v>0.8402804904602222</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9897061347861457</v>
+        <v>0.9900655354502459</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>80</v>
@@ -775,19 +775,19 @@
         <v>61984</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56086</v>
+        <v>56414</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64352</v>
+        <v>64364</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9555083265565164</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8645830363579227</v>
+        <v>0.8696422333086717</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.992018313444366</v>
+        <v>0.9921989511292207</v>
       </c>
     </row>
     <row r="5">
@@ -817,19 +817,19 @@
         <v>2886</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8339</v>
+        <v>7948</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05799944021624638</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01029386521385421</v>
+        <v>0.009934464549754001</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1675686075507791</v>
+        <v>0.1597195095397778</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -838,19 +838,19 @@
         <v>2886</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8784</v>
+        <v>8456</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04449167344348361</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007981686555633966</v>
+        <v>0.007801048870779259</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1354169636420746</v>
+        <v>0.1303577666913283</v>
       </c>
     </row>
     <row r="6">
@@ -955,7 +955,7 @@
         <v>44324</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40716</v>
+        <v>41137</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>45844</v>
@@ -964,7 +964,7 @@
         <v>0.9668384300117419</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8881370990397076</v>
+        <v>0.8973271361312284</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -976,7 +976,7 @@
         <v>53437</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49838</v>
+        <v>49821</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>54957</v>
@@ -985,7 +985,7 @@
         <v>0.9723376344121395</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.906861995112115</v>
+        <v>0.9065401376299708</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5128</v>
+        <v>4707</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03316156998825807</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1118629009602925</v>
+        <v>0.1026728638687717</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5119</v>
+        <v>5136</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02766236558786053</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09313800488788573</v>
+        <v>0.09345986237002876</v>
       </c>
     </row>
     <row r="9">
@@ -1325,19 +1325,19 @@
         <v>29266</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21811</v>
+        <v>21842</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32557</v>
+        <v>32494</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8571040264184459</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6387883077519301</v>
+        <v>0.639689576327157</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9535017606242054</v>
+        <v>0.9516572732651364</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -1346,19 +1346,19 @@
         <v>38412</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30826</v>
+        <v>30347</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41657</v>
+        <v>41742</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8872932513236353</v>
+        <v>0.8872932513236355</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7120672919398595</v>
+        <v>0.7010066758430364</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9622616182324781</v>
+        <v>0.9642245430167831</v>
       </c>
     </row>
     <row r="14">
@@ -1388,19 +1388,19 @@
         <v>4879</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1588</v>
+        <v>1651</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12334</v>
+        <v>12303</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1428959735815543</v>
+        <v>0.1428959735815542</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04649823937579462</v>
+        <v>0.04834272673486362</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3612116922480699</v>
+        <v>0.3603104236728428</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1409,19 +1409,19 @@
         <v>4879</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1634</v>
+        <v>1549</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12465</v>
+        <v>12944</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1127067486763647</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03773838176752174</v>
+        <v>0.03577545698321691</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2879327080601402</v>
+        <v>0.2989933241569631</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>154022</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>145446</v>
+        <v>143975</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>158907</v>
+        <v>158758</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9431405079839636</v>
+        <v>0.9431405079839634</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8906219754133851</v>
+        <v>0.881615086560312</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.973050732128067</v>
+        <v>0.9721404152649277</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>258</v>
@@ -1547,19 +1547,19 @@
         <v>192833</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>183610</v>
+        <v>184309</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>197547</v>
+        <v>197616</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9540585218950082</v>
+        <v>0.9540585218950079</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9084234715551724</v>
+        <v>0.911881748823999</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9773811612830429</v>
+        <v>0.9777201685316865</v>
       </c>
     </row>
     <row r="17">
@@ -1589,19 +1589,19 @@
         <v>9286</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4401</v>
+        <v>4550</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17862</v>
+        <v>19333</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.05685949201603641</v>
+        <v>0.05685949201603642</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02694926787193321</v>
+        <v>0.0278595847350722</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1093780245866153</v>
+        <v>0.1183849134396881</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -1610,19 +1610,19 @@
         <v>9286</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4572</v>
+        <v>4503</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18509</v>
+        <v>17810</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04594147810499187</v>
+        <v>0.04594147810499188</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02261883871695711</v>
+        <v>0.02227983146831357</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09157652844482825</v>
+        <v>0.08811825117600151</v>
       </c>
     </row>
     <row r="18">
